--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -31,40 +31,40 @@
     <t>WTI原油</t>
   </si>
   <si>
+    <t>隐含波动率指数</t>
+  </si>
+  <si>
     <t>行业龙头指数</t>
   </si>
   <si>
-    <t>隐含波动率指数</t>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>商品总指数</t>
+  </si>
+  <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>欧洲50</t>
   </si>
   <si>
     <t>LME铜</t>
   </si>
   <si>
-    <t>标普500</t>
-  </si>
-  <si>
-    <t>商品总指数</t>
-  </si>
-  <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
-    <t>欧洲50</t>
+    <t>黄金9999</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>万得全A指数</t>
   </si>
   <si>
     <t>美元指数</t>
   </si>
   <si>
     <t>美元兑人民币</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>万得全A指数</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.001009376464117728</v>
+        <v>0.004094264668362618</v>
       </c>
       <c r="C2">
-        <v>0.002324517529591167</v>
+        <v>0.003008260574957805</v>
       </c>
       <c r="D2">
-        <v>0.0007065074453896591</v>
+        <v>0.0009532059941200258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-8.031922852655971e-05</v>
+        <v>0.01153335446416556</v>
       </c>
       <c r="C3">
-        <v>0.001999899596290128</v>
+        <v>0.002522420898235176</v>
       </c>
       <c r="D3">
-        <v>0.001531539883979449</v>
+        <v>0.002561536883589624</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.002218756861315885</v>
+        <v>0.003958968059981904</v>
       </c>
       <c r="C4">
-        <v>0.001870588020671635</v>
+        <v>0.002339347228936023</v>
       </c>
       <c r="D4">
-        <v>0.001819164280444314</v>
+        <v>0.001741132791513925</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.000921544778098482</v>
+        <v>0.004736603377089988</v>
       </c>
       <c r="C5">
-        <v>0.001684540286377032</v>
+        <v>0.002142196942704796</v>
       </c>
       <c r="D5">
-        <v>0.001156285774753601</v>
+        <v>0.001422381828404027</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.001540397332560389</v>
+        <v>0.003168599711910441</v>
       </c>
       <c r="C6">
-        <v>0.001171925938033021</v>
+        <v>0.001746065947840965</v>
       </c>
       <c r="D6">
-        <v>0.0007091228893276525</v>
+        <v>0.0003916398658895666</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.0001294596526233926</v>
+        <v>0.002260114266872215</v>
       </c>
       <c r="C7">
-        <v>0.001157056114662545</v>
+        <v>0.001536087478056392</v>
       </c>
       <c r="D7">
-        <v>0.0002117464652796243</v>
+        <v>0.0008746329943189654</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.0004430010927441441</v>
+        <v>0.0009651054673651738</v>
       </c>
       <c r="C8">
-        <v>0.001024326433785426</v>
+        <v>0.0004269858019850026</v>
       </c>
       <c r="D8">
-        <v>0.001325485791956138</v>
+        <v>0.0003046113790787301</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.0002809608413784748</v>
+        <v>9.768565893457093e-05</v>
       </c>
       <c r="C9">
-        <v>0.0003363735146120872</v>
+        <v>0.0001658705339745844</v>
       </c>
       <c r="D9">
-        <v>0.0002664680147197451</v>
+        <v>0.0008961699393326372</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.0002967889473091123</v>
+        <v>0.001006462935426411</v>
       </c>
       <c r="C10">
-        <v>0.0002086308298738386</v>
+        <v>0.0001433310098309807</v>
       </c>
       <c r="D10">
-        <v>-0.0003965651835487761</v>
+        <v>0.0001202452103878314</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.0001858942500960081</v>
+        <v>9.152563831436588e-05</v>
       </c>
       <c r="C11">
-        <v>-2.715115357619924e-05</v>
+        <v>-3.922768688378042e-05</v>
       </c>
       <c r="D11">
-        <v>-0.0002228976047096565</v>
+        <v>2.132574714740227e-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>9.749196234863366e-05</v>
+        <v>0.001598304503568587</v>
       </c>
       <c r="C12">
-        <v>-5.953724155941901e-05</v>
+        <v>-0.0001204793977157133</v>
       </c>
       <c r="D12">
-        <v>2.709155723468421e-05</v>
+        <v>0.0004098190079479543</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.0005638635390799896</v>
+        <v>-0.001337590444858644</v>
       </c>
       <c r="C13">
-        <v>-0.0002859657302757705</v>
+        <v>-0.0004944986051568604</v>
       </c>
       <c r="D13">
-        <v>0.0002202037492825553</v>
+        <v>-0.0004186866011190816</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.0008548207601193347</v>
+        <v>-0.001112750339126073</v>
       </c>
       <c r="C14">
-        <v>-0.0004033470568141406</v>
+        <v>-0.0005194573394579701</v>
       </c>
       <c r="D14">
-        <v>0.0001547893523727907</v>
+        <v>-0.0002704827686996443</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -28,43 +28,43 @@
     <t>momY</t>
   </si>
   <si>
+    <t>隐含波动率指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>LME铜</t>
+  </si>
+  <si>
+    <t>商品总指数</t>
+  </si>
+  <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
     <t>WTI原油</t>
   </si>
   <si>
-    <t>隐含波动率指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
-    <t>商品总指数</t>
-  </si>
-  <si>
     <t>标普500</t>
   </si>
   <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>黄金9999</t>
+  </si>
+  <si>
+    <t>万得全A指数</t>
+  </si>
+  <si>
+    <t>美元指数</t>
+  </si>
+  <si>
+    <t>美元兑人民币</t>
+  </si>
+  <si>
     <t>欧洲50</t>
-  </si>
-  <si>
-    <t>LME铜</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>万得全A指数</t>
-  </si>
-  <si>
-    <t>美元指数</t>
-  </si>
-  <si>
-    <t>美元兑人民币</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.004094264668362618</v>
+        <v>0.04312154595637506</v>
       </c>
       <c r="C2">
-        <v>0.003008260574957805</v>
+        <v>0.01869764202194525</v>
       </c>
       <c r="D2">
-        <v>0.0009532059941200258</v>
+        <v>0.006438220586235459</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.01153335446416556</v>
+        <v>0.003958968059981904</v>
       </c>
       <c r="C3">
-        <v>0.002522420898235176</v>
+        <v>0.002339347228936023</v>
       </c>
       <c r="D3">
-        <v>0.002561536883589624</v>
+        <v>0.001741132791513925</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.003958968059981904</v>
+        <v>-0.0006948861063273748</v>
       </c>
       <c r="C4">
-        <v>0.002339347228936023</v>
+        <v>0.001192709009846255</v>
       </c>
       <c r="D4">
-        <v>0.001741132791513925</v>
+        <v>0.0009017223248914812</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.004736603377089988</v>
+        <v>-0.001078596543873672</v>
       </c>
       <c r="C5">
-        <v>0.002142196942704796</v>
+        <v>0.0009943532172889439</v>
       </c>
       <c r="D5">
-        <v>0.001422381828404027</v>
+        <v>0.0005813243666483382</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.003168599711910441</v>
+        <v>-0.004102985662700254</v>
       </c>
       <c r="C6">
-        <v>0.001746065947840965</v>
+        <v>0.0008454707756173889</v>
       </c>
       <c r="D6">
-        <v>0.0003916398658895666</v>
+        <v>0.001071598099584886</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.002260114266872215</v>
+        <v>-0.00235536752560086</v>
       </c>
       <c r="C7">
-        <v>0.001536087478056392</v>
+        <v>0.0008311702108191099</v>
       </c>
       <c r="D7">
-        <v>0.0008746329943189654</v>
+        <v>0.001041407453979816</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.0009651054673651738</v>
+        <v>-0.00158454996750888</v>
       </c>
       <c r="C8">
-        <v>0.0004269858019850026</v>
+        <v>0.0006678982634135374</v>
       </c>
       <c r="D8">
-        <v>0.0003046113790787301</v>
+        <v>0.0006089110404753506</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>9.768565893457093e-05</v>
+        <v>0.0004057805961913574</v>
       </c>
       <c r="C9">
-        <v>0.0001658705339745844</v>
+        <v>0.0002036035117579715</v>
       </c>
       <c r="D9">
-        <v>0.0008961699393326372</v>
+        <v>8.298346986344549e-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.001006462935426411</v>
+        <v>-0.0003054499060931637</v>
       </c>
       <c r="C10">
-        <v>0.0001433310098309807</v>
+        <v>-2.461410530049483e-05</v>
       </c>
       <c r="D10">
-        <v>0.0001202452103878314</v>
+        <v>1.326480793721738e-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>9.152563831436588e-05</v>
+        <v>-0.001868816827526509</v>
       </c>
       <c r="C11">
-        <v>-3.922768688378042e-05</v>
+        <v>-0.0001938447103768689</v>
       </c>
       <c r="D11">
-        <v>2.132574714740227e-05</v>
+        <v>2.907948557202793e-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.001598304503568587</v>
+        <v>0.0002746282112416398</v>
       </c>
       <c r="C12">
-        <v>-0.0001204793977157133</v>
+        <v>-0.000669652006515233</v>
       </c>
       <c r="D12">
-        <v>0.0004098190079479543</v>
+        <v>-0.000525652835927045</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.001337590444858644</v>
+        <v>0.0001713501133635276</v>
       </c>
       <c r="C13">
-        <v>-0.0004944986051568604</v>
+        <v>-0.0007862133116334399</v>
       </c>
       <c r="D13">
-        <v>-0.0004186866011190816</v>
+        <v>-0.0003692192442967337</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.001112750339126073</v>
+        <v>-0.003912752246891305</v>
       </c>
       <c r="C14">
-        <v>-0.0005194573394579701</v>
+        <v>-0.00100240981814349</v>
       </c>
       <c r="D14">
-        <v>-0.0002704827686996443</v>
+        <v>-0.0001579879013246926</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -31,37 +31,37 @@
     <t>隐含波动率指数</t>
   </si>
   <si>
+    <t>WTI原油</t>
+  </si>
+  <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>商品总指数</t>
+  </si>
+  <si>
     <t>行业龙头指数</t>
   </si>
   <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>黄金9999</t>
+  </si>
+  <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>万得全A指数</t>
+  </si>
+  <si>
+    <t>美元兑人民币</t>
+  </si>
+  <si>
+    <t>美元指数</t>
+  </si>
+  <si>
     <t>LME铜</t>
-  </si>
-  <si>
-    <t>商品总指数</t>
-  </si>
-  <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
-    <t>WTI原油</t>
-  </si>
-  <si>
-    <t>标普500</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
-  </si>
-  <si>
-    <t>万得全A指数</t>
-  </si>
-  <si>
-    <t>美元指数</t>
-  </si>
-  <si>
-    <t>美元兑人民币</t>
   </si>
   <si>
     <t>欧洲50</t>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.04312154595637506</v>
+        <v>0.01695977628687155</v>
       </c>
       <c r="C2">
-        <v>0.01869764202194525</v>
+        <v>0.02625069787476466</v>
       </c>
       <c r="D2">
-        <v>0.006438220586235459</v>
+        <v>0.007469744927232822</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.003958968059981904</v>
+        <v>0.00189211406560803</v>
       </c>
       <c r="C3">
-        <v>0.002339347228936023</v>
+        <v>0.001166172016143289</v>
       </c>
       <c r="D3">
-        <v>0.001741132791513925</v>
+        <v>0.001299423938739953</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.0006948861063273748</v>
+        <v>0.0002352473619689599</v>
       </c>
       <c r="C4">
-        <v>0.001192709009846255</v>
+        <v>0.001093842158809072</v>
       </c>
       <c r="D4">
-        <v>0.0009017223248914812</v>
+        <v>0.001041971437079178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.001078596543873672</v>
+        <v>0.0002335610044841396</v>
       </c>
       <c r="C5">
-        <v>0.0009943532172889439</v>
+        <v>0.0009359217042050986</v>
       </c>
       <c r="D5">
-        <v>0.0005813243666483382</v>
+        <v>0.0006573566937478903</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.004102985662700254</v>
+        <v>-0.0009233453519832402</v>
       </c>
       <c r="C6">
-        <v>0.0008454707756173889</v>
+        <v>0.0005641035045622596</v>
       </c>
       <c r="D6">
-        <v>0.001071598099584886</v>
+        <v>0.001274671978905024</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.00235536752560086</v>
+        <v>0.0003739936730595861</v>
       </c>
       <c r="C7">
-        <v>0.0008311702108191099</v>
+        <v>0.0002680486548776895</v>
       </c>
       <c r="D7">
-        <v>0.001041407453979816</v>
+        <v>9.283322014035404e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.00158454996750888</v>
+        <v>0.0001451563048763593</v>
       </c>
       <c r="C8">
-        <v>0.0006678982634135374</v>
+        <v>9.687067231000102e-05</v>
       </c>
       <c r="D8">
-        <v>0.0006089110404753506</v>
+        <v>-7.523136544747568e-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.0004057805961913574</v>
+        <v>-0.001070549607334198</v>
       </c>
       <c r="C9">
-        <v>0.0002036035117579715</v>
+        <v>-0.000159141269723001</v>
       </c>
       <c r="D9">
-        <v>8.298346986344549e-05</v>
+        <v>0.0005180898388101453</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.0003054499060931637</v>
+        <v>0.001151013367954473</v>
       </c>
       <c r="C10">
-        <v>-2.461410530049483e-05</v>
+        <v>-0.0002378163571397899</v>
       </c>
       <c r="D10">
-        <v>1.326480793721738e-05</v>
+        <v>-2.778451913659432e-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.001868816827526509</v>
+        <v>-0.00013937432967292</v>
       </c>
       <c r="C11">
-        <v>-0.0001938447103768689</v>
+        <v>-0.0006272566995384754</v>
       </c>
       <c r="D11">
-        <v>2.907948557202793e-05</v>
+        <v>-0.0003383948979253285</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.0002746282112416398</v>
+        <v>7.270411559759938e-05</v>
       </c>
       <c r="C12">
-        <v>-0.000669652006515233</v>
+        <v>-0.000628139858257933</v>
       </c>
       <c r="D12">
-        <v>-0.000525652835927045</v>
+        <v>-0.0004231219898153372</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.0001713501133635276</v>
+        <v>-0.003145850173065501</v>
       </c>
       <c r="C13">
-        <v>-0.0007862133116334399</v>
+        <v>-0.00071715800446062</v>
       </c>
       <c r="D13">
-        <v>-0.0003692192442967337</v>
+        <v>0.0006570240107108412</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.003912752246891305</v>
+        <v>-0.0008517560867890462</v>
       </c>
       <c r="C14">
-        <v>-0.00100240981814349</v>
+        <v>-0.0009071753889204152</v>
       </c>
       <c r="D14">
-        <v>-0.0001579879013246926</v>
+        <v>-0.0001556933653077975</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -40,13 +40,13 @@
     <t>商品总指数</t>
   </si>
   <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>黄金9999</t>
+  </si>
+  <si>
     <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
   </si>
   <si>
     <t>标普500</t>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.01695977628687155</v>
+        <v>0.0118426145888928</v>
       </c>
       <c r="C2">
-        <v>0.02625069787476466</v>
+        <v>0.0250320053449633</v>
       </c>
       <c r="D2">
-        <v>0.007469744927232822</v>
+        <v>0.007853186172717162</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.00189211406560803</v>
+        <v>0.003196531842933953</v>
       </c>
       <c r="C3">
-        <v>0.001166172016143289</v>
+        <v>0.0007579370845244367</v>
       </c>
       <c r="D3">
-        <v>0.001299423938739953</v>
+        <v>0.001182086476804375</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0002352473619689599</v>
+        <v>-1.333994826842599e-05</v>
       </c>
       <c r="C4">
-        <v>0.001093842158809072</v>
+        <v>0.0007534512165477421</v>
       </c>
       <c r="D4">
-        <v>0.001041971437079178</v>
+        <v>0.001015662978422819</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0002335610044841396</v>
+        <v>0.001143891352934384</v>
       </c>
       <c r="C5">
-        <v>0.0009359217042050986</v>
+        <v>0.0006004699394412931</v>
       </c>
       <c r="D5">
-        <v>0.0006573566937478903</v>
+        <v>0.0005854596058991389</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.0009233453519832402</v>
+        <v>0.0003300497517706058</v>
       </c>
       <c r="C6">
-        <v>0.0005641035045622596</v>
+        <v>0.0003046828998972536</v>
       </c>
       <c r="D6">
-        <v>0.001274671978905024</v>
+        <v>9.79328132703849e-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0003739936730595861</v>
+        <v>0.0007070099105765948</v>
       </c>
       <c r="C7">
-        <v>0.0002680486548776895</v>
+        <v>0.0001435596665666376</v>
       </c>
       <c r="D7">
-        <v>9.283322014035404e-05</v>
+        <v>-7.043829900468823e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.0001451563048763593</v>
+        <v>-0.001720630224648251</v>
       </c>
       <c r="C8">
-        <v>9.687067231000102e-05</v>
+        <v>-0.0001391026379915191</v>
       </c>
       <c r="D8">
-        <v>-7.523136544747568e-05</v>
+        <v>0.00119748613069501</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.001070549607334198</v>
+        <v>-0.001823983143530683</v>
       </c>
       <c r="C9">
-        <v>-0.000159141269723001</v>
+        <v>-0.0003517258378181935</v>
       </c>
       <c r="D9">
-        <v>0.0005180898388101453</v>
+        <v>0.0004302779513313237</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.001151013367954473</v>
+        <v>-0.0003134066774442501</v>
       </c>
       <c r="C10">
-        <v>-0.0002378163571397899</v>
+        <v>-0.0005876918367743437</v>
       </c>
       <c r="D10">
-        <v>-2.778451913659432e-05</v>
+        <v>-4.339187834634886e-06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.00013937432967292</v>
+        <v>-0.0004049145360262962</v>
       </c>
       <c r="C11">
-        <v>-0.0006272566995384754</v>
+        <v>-0.0006880903460143788</v>
       </c>
       <c r="D11">
-        <v>-0.0003383948979253285</v>
+        <v>-0.0003781797360327334</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>7.270411559759938e-05</v>
+        <v>-0.0007289178892012582</v>
       </c>
       <c r="C12">
-        <v>-0.000628139858257933</v>
+        <v>-0.000710456153455045</v>
       </c>
       <c r="D12">
-        <v>-0.0004231219898153372</v>
+        <v>-0.0004801889496950163</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.003145850173065501</v>
+        <v>-0.00200766245369724</v>
       </c>
       <c r="C13">
-        <v>-0.00071715800446062</v>
+        <v>-0.001095014824092488</v>
       </c>
       <c r="D13">
-        <v>0.0006570240107108412</v>
+        <v>0.0005442610713443617</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.0008517560867890462</v>
+        <v>-0.001697857695300625</v>
       </c>
       <c r="C14">
-        <v>-0.0009071753889204152</v>
+        <v>-0.001339780799162034</v>
       </c>
       <c r="D14">
-        <v>-0.0001556933653077975</v>
+        <v>-0.000285992131222474</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -34,37 +34,37 @@
     <t>WTI原油</t>
   </si>
   <si>
+    <t>商品总指数</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>美元指数</t>
+  </si>
+  <si>
+    <t>LME铜</t>
+  </si>
+  <si>
+    <t>美元兑人民币</t>
+  </si>
+  <si>
+    <t>黄金9999</t>
+  </si>
+  <si>
     <t>恒生指数</t>
   </si>
   <si>
-    <t>商品总指数</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
+    <t>欧洲50</t>
+  </si>
+  <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>万得全A指数</t>
   </si>
   <si>
     <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>标普500</t>
-  </si>
-  <si>
-    <t>万得全A指数</t>
-  </si>
-  <si>
-    <t>美元兑人民币</t>
-  </si>
-  <si>
-    <t>美元指数</t>
-  </si>
-  <si>
-    <t>LME铜</t>
-  </si>
-  <si>
-    <t>欧洲50</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0118426145888928</v>
+        <v>-0.01282658647063565</v>
       </c>
       <c r="C2">
-        <v>0.0250320053449633</v>
+        <v>0.02044006813032974</v>
       </c>
       <c r="D2">
-        <v>0.007853186172717162</v>
+        <v>0.007339973731425794</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.003196531842933953</v>
+        <v>0.002438693538095504</v>
       </c>
       <c r="C3">
-        <v>0.0007579370845244367</v>
+        <v>0.00110847398891916</v>
       </c>
       <c r="D3">
-        <v>0.001182086476804375</v>
+        <v>0.00150794843047177</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-1.333994826842599e-05</v>
+        <v>0.001690903110274533</v>
       </c>
       <c r="C4">
-        <v>0.0007534512165477421</v>
+        <v>0.0006351507173347055</v>
       </c>
       <c r="D4">
-        <v>0.001015662978422819</v>
+        <v>0.0008431976409226025</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.001143891352934384</v>
+        <v>0.0006985991855281593</v>
       </c>
       <c r="C5">
-        <v>0.0006004699394412931</v>
+        <v>0.0005012275964640841</v>
       </c>
       <c r="D5">
-        <v>0.0005854596058991389</v>
+        <v>0.0001725158525426268</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.0003300497517706058</v>
+        <v>0.0007175707853474489</v>
       </c>
       <c r="C6">
-        <v>0.0003046828998972536</v>
+        <v>8.6239473079421e-05</v>
       </c>
       <c r="D6">
-        <v>9.79328132703849e-05</v>
+        <v>-0.0003554091210337077</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0007070099105765948</v>
+        <v>0.002496068463131246</v>
       </c>
       <c r="C7">
-        <v>0.0001435596665666376</v>
+        <v>-0.0001537085161840535</v>
       </c>
       <c r="D7">
-        <v>-7.043829900468823e-05</v>
+        <v>0.000882098338754281</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.001720630224648251</v>
+        <v>-9.884972908023592e-05</v>
       </c>
       <c r="C8">
-        <v>-0.0001391026379915191</v>
+        <v>-0.0002525044370154661</v>
       </c>
       <c r="D8">
-        <v>0.00119748613069501</v>
+        <v>-0.0003656377369976249</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.001823983143530683</v>
+        <v>-0.0006990586949142729</v>
       </c>
       <c r="C9">
-        <v>-0.0003517258378181935</v>
+        <v>-0.0002838147456148539</v>
       </c>
       <c r="D9">
-        <v>0.0004302779513313237</v>
+        <v>-0.000159738516191966</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.0003134066774442501</v>
+        <v>0.0005890085102369325</v>
       </c>
       <c r="C10">
-        <v>-0.0005876918367743437</v>
+        <v>-0.0008378589763583762</v>
       </c>
       <c r="D10">
-        <v>-4.339187834634886e-06</v>
+        <v>0.000930383435714903</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.0004049145360262962</v>
+        <v>0.002509190376729942</v>
       </c>
       <c r="C11">
-        <v>-0.0006880903460143788</v>
+        <v>-0.001041129913195049</v>
       </c>
       <c r="D11">
-        <v>-0.0003781797360327334</v>
+        <v>-0.000151578373116494</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.0007289178892012582</v>
+        <v>0.0009563511825418702</v>
       </c>
       <c r="C12">
-        <v>-0.000710456153455045</v>
+        <v>-0.001123770788029862</v>
       </c>
       <c r="D12">
-        <v>-0.0004801889496950163</v>
+        <v>0.0004316808341677967</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.00200766245369724</v>
+        <v>0.0004220924458714082</v>
       </c>
       <c r="C13">
-        <v>-0.001095014824092488</v>
+        <v>-0.001470981003466817</v>
       </c>
       <c r="D13">
-        <v>0.0005442610713443617</v>
+        <v>5.734115214260437e-05</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.001697857695300625</v>
+        <v>-0.001991123210879275</v>
       </c>
       <c r="C14">
-        <v>-0.001339780799162034</v>
+        <v>-0.00223816775810527</v>
       </c>
       <c r="D14">
-        <v>-0.000285992131222474</v>
+        <v>0.0009509249431617396</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -34,28 +34,28 @@
     <t>WTI原油</t>
   </si>
   <si>
+    <t>美元指数</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
     <t>商品总指数</t>
   </si>
   <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>美元指数</t>
+    <t>美元兑人民币</t>
+  </si>
+  <si>
+    <t>黄金9999</t>
   </si>
   <si>
     <t>LME铜</t>
   </si>
   <si>
-    <t>美元兑人民币</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
+    <t>欧洲50</t>
   </si>
   <si>
     <t>恒生指数</t>
-  </si>
-  <si>
-    <t>欧洲50</t>
   </si>
   <si>
     <t>标普500</t>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.01282658647063565</v>
+        <v>-0.01014038529047879</v>
       </c>
       <c r="C2">
-        <v>0.02044006813032974</v>
+        <v>0.01726660389344355</v>
       </c>
       <c r="D2">
-        <v>0.007339973731425794</v>
+        <v>0.006628940177309994</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.002438693538095504</v>
+        <v>0.002913911494557853</v>
       </c>
       <c r="C3">
-        <v>0.00110847398891916</v>
+        <v>0.0009937614403648506</v>
       </c>
       <c r="D3">
-        <v>0.00150794843047177</v>
+        <v>0.001639190269146579</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001690903110274533</v>
+        <v>0.001309222892785727</v>
       </c>
       <c r="C4">
-        <v>0.0006351507173347055</v>
+        <v>0.0005799849707755748</v>
       </c>
       <c r="D4">
-        <v>0.0008431976409226025</v>
+        <v>-0.000276855906900789</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0006985991855281593</v>
+        <v>0.0006100709744503608</v>
       </c>
       <c r="C5">
-        <v>0.0005012275964640841</v>
+        <v>0.000470680217979852</v>
       </c>
       <c r="D5">
-        <v>0.0001725158525426268</v>
+        <v>0.0001739650207746865</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.0007175707853474489</v>
+        <v>0.001989408370107565</v>
       </c>
       <c r="C6">
-        <v>8.6239473079421e-05</v>
+        <v>0.0003438925673252139</v>
       </c>
       <c r="D6">
-        <v>-0.0003554091210337077</v>
+        <v>0.0008650738199386347</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.002496068463131246</v>
+        <v>0.0003579759825579843</v>
       </c>
       <c r="C7">
-        <v>-0.0001537085161840535</v>
+        <v>4.087940516703433e-05</v>
       </c>
       <c r="D7">
-        <v>0.000882098338754281</v>
+        <v>-0.0003483437613972285</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-9.884972908023592e-05</v>
+        <v>8.00372335730215e-05</v>
       </c>
       <c r="C8">
-        <v>-0.0002525044370154661</v>
+        <v>-0.0005089237187139717</v>
       </c>
       <c r="D8">
-        <v>-0.0003656377369976249</v>
+        <v>-0.0001396578253510193</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.0006990586949142729</v>
+        <v>0.0002263088392761847</v>
       </c>
       <c r="C9">
-        <v>-0.0002838147456148539</v>
+        <v>-0.0007835774397167021</v>
       </c>
       <c r="D9">
-        <v>-0.000159738516191966</v>
+        <v>0.0008378469511222933</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.0005890085102369325</v>
+        <v>0.001995118902153936</v>
       </c>
       <c r="C10">
-        <v>-0.0008378589763583762</v>
+        <v>-0.0007975055952289756</v>
       </c>
       <c r="D10">
-        <v>0.000930383435714903</v>
+        <v>-0.0001353326113176596</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.002509190376729942</v>
+        <v>0.001244745951695742</v>
       </c>
       <c r="C11">
-        <v>-0.001041129913195049</v>
+        <v>-0.0008688269002764741</v>
       </c>
       <c r="D11">
-        <v>-0.000151578373116494</v>
+        <v>0.000956850031392859</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.0009563511825418702</v>
+        <v>0.0003114071784443062</v>
       </c>
       <c r="C12">
-        <v>-0.001123770788029862</v>
+        <v>-0.001030136010311877</v>
       </c>
       <c r="D12">
-        <v>0.0004316808341677967</v>
+        <v>0.0004649982714621145</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.0004220924458714082</v>
+        <v>-0.001444866115830273</v>
       </c>
       <c r="C13">
-        <v>-0.001470981003466817</v>
+        <v>-0.001872043524224948</v>
       </c>
       <c r="D13">
-        <v>5.734115214260437e-05</v>
+        <v>-7.008405270630204e-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.001991123210879275</v>
+        <v>-0.00275425720511972</v>
       </c>
       <c r="C14">
-        <v>-0.00223816775810527</v>
+        <v>-0.002896664082359577</v>
       </c>
       <c r="D14">
-        <v>0.0009509249431617396</v>
+        <v>0.0008433880953739842</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -28,43 +28,43 @@
     <t>momY</t>
   </si>
   <si>
+    <t>WTI原油</t>
+  </si>
+  <si>
+    <t>商品总指数</t>
+  </si>
+  <si>
+    <t>美元指数</t>
+  </si>
+  <si>
+    <t>欧洲50</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>美元兑人民币</t>
+  </si>
+  <si>
+    <t>黄金9999</t>
+  </si>
+  <si>
+    <t>LME铜</t>
+  </si>
+  <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>万得全A指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
     <t>隐含波动率指数</t>
-  </si>
-  <si>
-    <t>WTI原油</t>
-  </si>
-  <si>
-    <t>美元指数</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>商品总指数</t>
-  </si>
-  <si>
-    <t>美元兑人民币</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
-  </si>
-  <si>
-    <t>LME铜</t>
-  </si>
-  <si>
-    <t>欧洲50</t>
-  </si>
-  <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
-    <t>标普500</t>
-  </si>
-  <si>
-    <t>万得全A指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.01014038529047879</v>
+        <v>0.003067231441713647</v>
       </c>
       <c r="C2">
-        <v>0.01726660389344355</v>
+        <v>0.003311948604766246</v>
       </c>
       <c r="D2">
-        <v>0.006628940177309994</v>
+        <v>0.00192850799235069</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.002913911494557853</v>
+        <v>0.001493504080791458</v>
       </c>
       <c r="C3">
-        <v>0.0009937614403648506</v>
+        <v>0.001627362824993687</v>
       </c>
       <c r="D3">
-        <v>0.001639190269146579</v>
+        <v>0.001041635868981224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001309222892785727</v>
+        <v>0.0008789119370036403</v>
       </c>
       <c r="C4">
-        <v>0.0005799849707755748</v>
+        <v>0.0007004302337320523</v>
       </c>
       <c r="D4">
-        <v>-0.000276855906900789</v>
+        <v>-0.0001031385110877196</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0006100709744503608</v>
+        <v>-0.0002469099058626412</v>
       </c>
       <c r="C5">
-        <v>0.000470680217979852</v>
+        <v>0.0003783186490516436</v>
       </c>
       <c r="D5">
-        <v>0.0001739650207746865</v>
+        <v>-0.0001935082427915285</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.001989408370107565</v>
+        <v>0.0001006007365688733</v>
       </c>
       <c r="C6">
-        <v>0.0003438925673252139</v>
+        <v>0.0003511150874484874</v>
       </c>
       <c r="D6">
-        <v>0.0008650738199386347</v>
+        <v>0.0001977911613655361</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0003579759825579843</v>
+        <v>0.001309634320246861</v>
       </c>
       <c r="C7">
-        <v>4.087940516703433e-05</v>
+        <v>0.000335309511917542</v>
       </c>
       <c r="D7">
-        <v>-0.0003483437613972285</v>
+        <v>0.0004847524441174127</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>8.00372335730215e-05</v>
+        <v>0.0006754282541774958</v>
       </c>
       <c r="C8">
-        <v>-0.0005089237187139717</v>
+        <v>0.0001616006765509437</v>
       </c>
       <c r="D8">
-        <v>-0.0001396578253510193</v>
+        <v>-0.0002425192289813762</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.0002263088392761847</v>
+        <v>-0.0002626943718243346</v>
       </c>
       <c r="C9">
-        <v>-0.0007835774397167021</v>
+        <v>-4.945748413284767e-05</v>
       </c>
       <c r="D9">
-        <v>0.0008378469511222933</v>
+        <v>-0.000129859999440207</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.001995118902153936</v>
+        <v>0.0006042492486068973</v>
       </c>
       <c r="C10">
-        <v>-0.0007975055952289756</v>
+        <v>-6.710991928090733e-05</v>
       </c>
       <c r="D10">
-        <v>-0.0001353326113176596</v>
+        <v>0.0008155636828001984</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.001244745951695742</v>
+        <v>-0.001183081429891675</v>
       </c>
       <c r="C11">
-        <v>-0.0008688269002764741</v>
+        <v>-0.0004682450435260333</v>
       </c>
       <c r="D11">
-        <v>0.000956850031392859</v>
+        <v>0.000658544392134595</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.0003114071784443062</v>
+        <v>-0.0008796378762109536</v>
       </c>
       <c r="C12">
-        <v>-0.001030136010311877</v>
+        <v>-0.001053106613098461</v>
       </c>
       <c r="D12">
-        <v>0.0004649982714621145</v>
+        <v>5.273440496559225e-05</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.001444866115830273</v>
+        <v>-0.0003423418417604851</v>
       </c>
       <c r="C13">
-        <v>-0.001872043524224948</v>
+        <v>-0.00179461036520905</v>
       </c>
       <c r="D13">
-        <v>-7.008405270630204e-06</v>
+        <v>0.000577835781290074</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.00275425720511972</v>
+        <v>0.003256761344512144</v>
       </c>
       <c r="C14">
-        <v>-0.002896664082359577</v>
+        <v>-0.002386155667737607</v>
       </c>
       <c r="D14">
-        <v>0.0008433880953739842</v>
+        <v>0.006786199309017591</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -28,43 +28,43 @@
     <t>momY</t>
   </si>
   <si>
+    <t>美元兑人民币</t>
+  </si>
+  <si>
+    <t>美元指数</t>
+  </si>
+  <si>
     <t>WTI原油</t>
   </si>
   <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>隐含波动率指数</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>欧洲50</t>
+  </si>
+  <si>
     <t>商品总指数</t>
   </si>
   <si>
-    <t>美元指数</t>
-  </si>
-  <si>
-    <t>欧洲50</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>标普500</t>
-  </si>
-  <si>
-    <t>美元兑人民币</t>
-  </si>
-  <si>
     <t>黄金9999</t>
   </si>
   <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
     <t>LME铜</t>
   </si>
   <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
     <t>万得全A指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>隐含波动率指数</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.003067231441713647</v>
+        <v>0.002142912386337886</v>
       </c>
       <c r="C2">
-        <v>0.003311948604766246</v>
+        <v>0.001039644471448348</v>
       </c>
       <c r="D2">
-        <v>0.00192850799235069</v>
+        <v>-5.579675840810385e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.001493504080791458</v>
+        <v>0.0006319502602432526</v>
       </c>
       <c r="C3">
-        <v>0.001627362824993687</v>
+        <v>0.0009673177058703556</v>
       </c>
       <c r="D3">
-        <v>0.001041635868981224</v>
+        <v>-9.385180988987471e-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0008789119370036403</v>
+        <v>-0.001324629092727497</v>
       </c>
       <c r="C4">
-        <v>0.0007004302337320523</v>
+        <v>0.0007369335713597788</v>
       </c>
       <c r="D4">
-        <v>-0.0001031385110877196</v>
+        <v>0.001807802874778479</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.0002469099058626412</v>
+        <v>-7.266198205652108e-06</v>
       </c>
       <c r="C5">
-        <v>0.0003783186490516436</v>
+        <v>0.0006087325936801484</v>
       </c>
       <c r="D5">
-        <v>-0.0001935082427915285</v>
+        <v>0.0005265447498477551</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.0001006007365688733</v>
+        <v>0.007002606174862741</v>
       </c>
       <c r="C6">
-        <v>0.0003511150874484874</v>
+        <v>0.0004005158138801831</v>
       </c>
       <c r="D6">
-        <v>0.0001977911613655361</v>
+        <v>0.006712514538125168</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.001309634320246861</v>
+        <v>0.0005180715433054262</v>
       </c>
       <c r="C7">
-        <v>0.000335309511917542</v>
+        <v>0.0002671921330624401</v>
       </c>
       <c r="D7">
-        <v>0.0004847524441174127</v>
+        <v>0.000175499684629229</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.0006754282541774958</v>
+        <v>-0.0003480800239737458</v>
       </c>
       <c r="C8">
-        <v>0.0001616006765509437</v>
+        <v>0.0001875929932613707</v>
       </c>
       <c r="D8">
-        <v>-0.0002425192289813762</v>
+        <v>-0.000126002586116784</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.0002626943718243346</v>
+        <v>-0.001474744630118013</v>
       </c>
       <c r="C9">
-        <v>-4.945748413284767e-05</v>
+        <v>6.262246452827247e-05</v>
       </c>
       <c r="D9">
-        <v>-0.000129859999440207</v>
+        <v>0.0008841681300651651</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.0006042492486068973</v>
+        <v>0.0002150315029099625</v>
       </c>
       <c r="C10">
-        <v>-6.710991928090733e-05</v>
+        <v>-0.0002351764731627774</v>
       </c>
       <c r="D10">
-        <v>0.0008155636828001984</v>
+        <v>2.722264193558155e-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.001183081429891675</v>
+        <v>-0.004019665266118716</v>
       </c>
       <c r="C11">
-        <v>-0.0004682450435260333</v>
+        <v>-0.001081620811799526</v>
       </c>
       <c r="D11">
-        <v>0.000658544392134595</v>
+        <v>0.0003436134095488964</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.0008796378762109536</v>
+        <v>-0.005205320492542631</v>
       </c>
       <c r="C12">
-        <v>-0.001053106613098461</v>
+        <v>-0.001362373754554049</v>
       </c>
       <c r="D12">
-        <v>5.273440496559225e-05</v>
+        <v>8.298739001321269e-05</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.0003423418417604851</v>
+        <v>-0.008186135420314027</v>
       </c>
       <c r="C13">
-        <v>-0.00179461036520905</v>
+        <v>-0.001849048179271749</v>
       </c>
       <c r="D13">
-        <v>0.000577835781290074</v>
+        <v>0.0002056035660319184</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.003256761344512144</v>
+        <v>-0.005001205832658373</v>
       </c>
       <c r="C14">
-        <v>-0.002386155667737607</v>
+        <v>-0.002215185531377293</v>
       </c>
       <c r="D14">
-        <v>0.006786199309017591</v>
+        <v>-0.0005984606565147687</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -28,40 +28,40 @@
     <t>momY</t>
   </si>
   <si>
+    <t>隐含波动率指数</t>
+  </si>
+  <si>
+    <t>黄金9999</t>
+  </si>
+  <si>
+    <t>WTI原油</t>
+  </si>
+  <si>
     <t>美元兑人民币</t>
   </si>
   <si>
     <t>美元指数</t>
   </si>
   <si>
-    <t>WTI原油</t>
+    <t>商品总指数</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>LME铜</t>
   </si>
   <si>
     <t>标普500</t>
   </si>
   <si>
-    <t>隐含波动率指数</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
     <t>欧洲50</t>
   </si>
   <si>
-    <t>商品总指数</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
+    <t>行业龙头指数</t>
   </si>
   <si>
     <t>恒生指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>LME铜</t>
   </si>
   <si>
     <t>万得全A指数</t>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.002142912386337886</v>
+        <v>0.0431922003029598</v>
       </c>
       <c r="C2">
-        <v>0.001039644471448348</v>
+        <v>0.01620958819168675</v>
       </c>
       <c r="D2">
-        <v>-5.579675840810385e-05</v>
+        <v>0.008568896830861589</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0006319502602432526</v>
+        <v>0.001937873361063563</v>
       </c>
       <c r="C3">
-        <v>0.0009673177058703556</v>
+        <v>0.0004847183584619237</v>
       </c>
       <c r="D3">
-        <v>-9.385180988987471e-06</v>
+        <v>4.237073045976934e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.001324629092727497</v>
+        <v>-0.001506684685525073</v>
       </c>
       <c r="C4">
-        <v>0.0007369335713597788</v>
+        <v>0.0004697576034886556</v>
       </c>
       <c r="D4">
-        <v>0.001807802874778479</v>
+        <v>0.001191612623321694</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-7.266198205652108e-06</v>
+        <v>0.0006076174419754055</v>
       </c>
       <c r="C5">
-        <v>0.0006087325936801484</v>
+        <v>0.0003743031176658233</v>
       </c>
       <c r="D5">
-        <v>0.0005265447498477551</v>
+        <v>0.0001897600017434348</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.007002606174862741</v>
+        <v>0.0009443808170187084</v>
       </c>
       <c r="C6">
-        <v>0.0004005158138801831</v>
+        <v>0.0003254037011748109</v>
       </c>
       <c r="D6">
-        <v>0.006712514538125168</v>
+        <v>0.0001273257928500088</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0005180715433054262</v>
+        <v>-0.0001783068558248058</v>
       </c>
       <c r="C7">
-        <v>0.0002671921330624401</v>
+        <v>0.0002872605067973488</v>
       </c>
       <c r="D7">
-        <v>0.000175499684629229</v>
+        <v>0.0006447736341963458</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.0003480800239737458</v>
+        <v>0.0004339422390082004</v>
       </c>
       <c r="C8">
-        <v>0.0001875929932613707</v>
+        <v>0.0002304091534478747</v>
       </c>
       <c r="D8">
-        <v>-0.000126002586116784</v>
+        <v>0.0002281284859269889</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.001474744630118013</v>
+        <v>0.0007925399673758826</v>
       </c>
       <c r="C9">
-        <v>6.262246452827247e-05</v>
+        <v>-0.0001496446872781905</v>
       </c>
       <c r="D9">
-        <v>0.0008841681300651651</v>
+        <v>-0.0004543551353412238</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.0002150315029099625</v>
+        <v>-0.004375364044080848</v>
       </c>
       <c r="C10">
-        <v>-0.0002351764731627774</v>
+        <v>-0.000963222183120338</v>
       </c>
       <c r="D10">
-        <v>2.722264193558155e-05</v>
+        <v>0.0001941327645188397</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.004019665266118716</v>
+        <v>-0.00193479348070113</v>
       </c>
       <c r="C11">
-        <v>-0.001081620811799526</v>
+        <v>-0.001263663247213261</v>
       </c>
       <c r="D11">
-        <v>0.0003436134095488964</v>
+        <v>-0.000328525138497197</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.005205320492542631</v>
+        <v>-0.001126002684298533</v>
       </c>
       <c r="C12">
-        <v>-0.001362373754554049</v>
+        <v>-0.001716130159539064</v>
       </c>
       <c r="D12">
-        <v>8.298739001321269e-05</v>
+        <v>-0.00051012968552409</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.008186135420314027</v>
+        <v>-0.003312766949599388</v>
       </c>
       <c r="C13">
-        <v>-0.001849048179271749</v>
+        <v>-0.002001990823326401</v>
       </c>
       <c r="D13">
-        <v>0.0002056035660319184</v>
+        <v>-0.0003963946068107057</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.005001205832658373</v>
+        <v>-0.002714618919692008</v>
       </c>
       <c r="C14">
-        <v>-0.002215185531377293</v>
+        <v>-0.002621846795586933</v>
       </c>
       <c r="D14">
-        <v>-0.0005984606565147687</v>
+        <v>-0.001319364591631627</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -31,40 +31,40 @@
     <t>隐含波动率指数</t>
   </si>
   <si>
+    <t>LME铜</t>
+  </si>
+  <si>
     <t>黄金9999</t>
   </si>
   <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>美元指数</t>
+  </si>
+  <si>
+    <t>美元兑人民币</t>
+  </si>
+  <si>
+    <t>万得全A指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>欧洲50</t>
+  </si>
+  <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>商品总指数</t>
+  </si>
+  <si>
     <t>WTI原油</t>
-  </si>
-  <si>
-    <t>美元兑人民币</t>
-  </si>
-  <si>
-    <t>美元指数</t>
-  </si>
-  <si>
-    <t>商品总指数</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>LME铜</t>
-  </si>
-  <si>
-    <t>标普500</t>
-  </si>
-  <si>
-    <t>欧洲50</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
-    <t>万得全A指数</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0431922003029598</v>
+        <v>-0.004125914923036983</v>
       </c>
       <c r="C2">
-        <v>0.01620958819168675</v>
+        <v>0.01326664677402044</v>
       </c>
       <c r="D2">
-        <v>0.008568896830861589</v>
+        <v>0.008499987100945725</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.001937873361063563</v>
+        <v>0.0007590414812344515</v>
       </c>
       <c r="C3">
-        <v>0.0004847183584619237</v>
+        <v>0.0008932271770502561</v>
       </c>
       <c r="D3">
-        <v>4.237073045976934e-05</v>
+        <v>-0.0003977624725788139</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.001506684685525073</v>
+        <v>-0.000504953852771678</v>
       </c>
       <c r="C4">
-        <v>0.0004697576034886556</v>
+        <v>0.0006514986588325667</v>
       </c>
       <c r="D4">
-        <v>0.001191612623321694</v>
+        <v>-1.130871714965264e-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0006076174419754055</v>
+        <v>0.0004915714282107076</v>
       </c>
       <c r="C5">
-        <v>0.0003743031176658233</v>
+        <v>0.0003607281005003515</v>
       </c>
       <c r="D5">
-        <v>0.0001897600017434348</v>
+        <v>0.0002970398668145368</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.0009443808170187084</v>
+        <v>5.205573514271977e-05</v>
       </c>
       <c r="C6">
-        <v>0.0003254037011748109</v>
+        <v>0.0001551244604266884</v>
       </c>
       <c r="D6">
-        <v>0.0001273257928500088</v>
+        <v>0.0001700186294732401</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.0001783068558248058</v>
+        <v>-7.506794808201934e-05</v>
       </c>
       <c r="C7">
-        <v>0.0002872605067973488</v>
+        <v>0.0001395986545296268</v>
       </c>
       <c r="D7">
-        <v>0.0006447736341963458</v>
+        <v>0.0002047575854996248</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.0004339422390082004</v>
+        <v>0.002642815023225109</v>
       </c>
       <c r="C8">
-        <v>0.0002304091534478747</v>
+        <v>-0.0004839058612063426</v>
       </c>
       <c r="D8">
-        <v>0.0002281284859269889</v>
+        <v>-0.001018850305798571</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.0007925399673758826</v>
+        <v>-0.000632287949135324</v>
       </c>
       <c r="C9">
-        <v>-0.0001496446872781905</v>
+        <v>-0.0008324423221399979</v>
       </c>
       <c r="D9">
-        <v>-0.0004543551353412238</v>
+        <v>-0.000829042489349573</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.004375364044080848</v>
+        <v>0.002674655510847085</v>
       </c>
       <c r="C10">
-        <v>-0.000963222183120338</v>
+        <v>-0.0009722829847728876</v>
       </c>
       <c r="D10">
-        <v>0.0001941327645188397</v>
+        <v>-0.0004889637140400056</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.00193479348070113</v>
+        <v>0.0001213422718509549</v>
       </c>
       <c r="C11">
-        <v>-0.001263663247213261</v>
+        <v>-0.00103015193365967</v>
       </c>
       <c r="D11">
-        <v>-0.000328525138497197</v>
+        <v>-0.0003649323125225821</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.001126002684298533</v>
+        <v>-0.0001062303559447864</v>
       </c>
       <c r="C12">
-        <v>-0.001716130159539064</v>
+        <v>-0.001195980194264553</v>
       </c>
       <c r="D12">
-        <v>-0.00051012968552409</v>
+        <v>0.0001179812578840214</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.003312766949599388</v>
+        <v>-0.005295235285970273</v>
       </c>
       <c r="C13">
-        <v>-0.002001990823326401</v>
+        <v>-0.001333633260130335</v>
       </c>
       <c r="D13">
-        <v>-0.0003963946068107057</v>
+        <v>3.29518564208182e-05</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.002714618919692008</v>
+        <v>-0.01047754715190282</v>
       </c>
       <c r="C14">
-        <v>-0.002621846795586933</v>
+        <v>-0.002820682148320217</v>
       </c>
       <c r="D14">
-        <v>-0.001319364591631627</v>
+        <v>8.347698347535261e-05</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -31,31 +31,31 @@
     <t>隐含波动率指数</t>
   </si>
   <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>黄金9999</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>万得全A指数</t>
+  </si>
+  <si>
+    <t>美元指数</t>
+  </si>
+  <si>
+    <t>美元兑人民币</t>
+  </si>
+  <si>
+    <t>欧洲50</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
     <t>LME铜</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>美元指数</t>
-  </si>
-  <si>
-    <t>美元兑人民币</t>
-  </si>
-  <si>
-    <t>万得全A指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
-    <t>欧洲50</t>
   </si>
   <si>
     <t>标普500</t>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.004125914923036983</v>
+        <v>-0.0002952144954131375</v>
       </c>
       <c r="C2">
-        <v>0.01326664677402044</v>
+        <v>0.005832376428655402</v>
       </c>
       <c r="D2">
-        <v>0.008499987100945725</v>
+        <v>0.008547730967921996</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0007590414812344515</v>
+        <v>0.0006855516143345897</v>
       </c>
       <c r="C3">
-        <v>0.0008932271770502561</v>
+        <v>0.0007667892382044776</v>
       </c>
       <c r="D3">
-        <v>-0.0003977624725788139</v>
+        <v>-0.0005750886408626006</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.000504953852771678</v>
+        <v>0.001146640208511473</v>
       </c>
       <c r="C4">
-        <v>0.0006514986588325667</v>
+        <v>0.0006114461465172434</v>
       </c>
       <c r="D4">
-        <v>-1.130871714965264e-06</v>
+        <v>9.648576716536947e-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0004915714282107076</v>
+        <v>0.0004629903108630207</v>
       </c>
       <c r="C5">
-        <v>0.0003607281005003515</v>
+        <v>0.0004728224573979478</v>
       </c>
       <c r="D5">
-        <v>0.0002970398668145368</v>
+        <v>0.000345337300585179</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5.205573514271977e-05</v>
+        <v>-0.001320141848182293</v>
       </c>
       <c r="C6">
-        <v>0.0001551244604266884</v>
+        <v>0.0004332438262425464</v>
       </c>
       <c r="D6">
-        <v>0.0001700186294732401</v>
+        <v>-0.001295848402922735</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-7.506794808201934e-05</v>
+        <v>-0.0007773698560984921</v>
       </c>
       <c r="C7">
-        <v>0.0001395986545296268</v>
+        <v>-9.992136453662592e-06</v>
       </c>
       <c r="D7">
-        <v>0.0002047575854996248</v>
+        <v>0.0001668800731025268</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.002642815023225109</v>
+        <v>-0.0006584868869819905</v>
       </c>
       <c r="C8">
-        <v>-0.0004839058612063426</v>
+        <v>-0.0003322952753938494</v>
       </c>
       <c r="D8">
-        <v>-0.001018850305798571</v>
+        <v>0.0001866231207078432</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.000632287949135324</v>
+        <v>-0.0005778959725547816</v>
       </c>
       <c r="C9">
-        <v>-0.0008324423221399979</v>
+        <v>-0.0005825451204929055</v>
       </c>
       <c r="D9">
-        <v>-0.000829042489349573</v>
+        <v>-0.0005115173927918756</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.002674655510847085</v>
+        <v>-0.0009462745158641594</v>
       </c>
       <c r="C10">
-        <v>-0.0009722829847728876</v>
+        <v>-0.0005959571914849304</v>
       </c>
       <c r="D10">
-        <v>-0.0004889637140400056</v>
+        <v>-0.001131430202676294</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.0001213422718509549</v>
+        <v>-0.001863606169684373</v>
       </c>
       <c r="C11">
-        <v>-0.00103015193365967</v>
+        <v>-0.0007699545907009571</v>
       </c>
       <c r="D11">
-        <v>-0.0003649323125225821</v>
+        <v>-0.000698241650820122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.0001062303559447864</v>
+        <v>-0.0008627095960117459</v>
       </c>
       <c r="C12">
-        <v>-0.001195980194264553</v>
+        <v>-0.001197521429633558</v>
       </c>
       <c r="D12">
-        <v>0.0001179812578840214</v>
+        <v>-0.0002006944181068828</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.005295235285970273</v>
+        <v>-7.393187603620399e-05</v>
       </c>
       <c r="C13">
-        <v>-0.001333633260130335</v>
+        <v>-0.002647055497122375</v>
       </c>
       <c r="D13">
-        <v>3.29518564208182e-05</v>
+        <v>-0.0003036392546297568</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.01047754715190282</v>
+        <v>0.001393990936938178</v>
       </c>
       <c r="C14">
-        <v>-0.002820682148320217</v>
+        <v>-0.004181550862245801</v>
       </c>
       <c r="D14">
-        <v>8.347698347535261e-05</v>
+        <v>-0.0003291242719403523</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/temp.xlsx
+++ b/website/everyday-update/data/temp.xlsx
@@ -28,43 +28,43 @@
     <t>momY</t>
   </si>
   <si>
+    <t>万得全A指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>WTI原油</t>
+  </si>
+  <si>
+    <t>欧洲50</t>
+  </si>
+  <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>LME铜</t>
+  </si>
+  <si>
+    <t>商品总指数</t>
+  </si>
+  <si>
+    <t>黄金9999</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>美元指数</t>
+  </si>
+  <si>
+    <t>美元兑人民币</t>
+  </si>
+  <si>
     <t>隐含波动率指数</t>
-  </si>
-  <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
-    <t>黄金9999</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>万得全A指数</t>
-  </si>
-  <si>
-    <t>美元指数</t>
-  </si>
-  <si>
-    <t>美元兑人民币</t>
-  </si>
-  <si>
-    <t>欧洲50</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>LME铜</t>
-  </si>
-  <si>
-    <t>标普500</t>
-  </si>
-  <si>
-    <t>商品总指数</t>
-  </si>
-  <si>
-    <t>WTI原油</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0002952144954131375</v>
+        <v>0.00730505711807442</v>
       </c>
       <c r="C2">
-        <v>0.005832376428655402</v>
+        <v>0.003396518166341265</v>
       </c>
       <c r="D2">
-        <v>0.008547730967921996</v>
+        <v>-0.0001202204571640077</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0006855516143345897</v>
+        <v>0.004165956128550535</v>
       </c>
       <c r="C3">
-        <v>0.0007667892382044776</v>
+        <v>0.002715955208027567</v>
       </c>
       <c r="D3">
-        <v>-0.0005750886408626006</v>
+        <v>-0.0002110594337709524</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001146640208511473</v>
+        <v>0.00187215806035616</v>
       </c>
       <c r="C4">
-        <v>0.0006114461465172434</v>
+        <v>0.001763480095013716</v>
       </c>
       <c r="D4">
-        <v>9.648576716536947e-05</v>
+        <v>-0.000210918236680687</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -489,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0004629903108630207</v>
+        <v>0.0003567778914680297</v>
       </c>
       <c r="C5">
-        <v>0.0004728224573979478</v>
+        <v>0.001603557915619247</v>
       </c>
       <c r="D5">
-        <v>0.000345337300585179</v>
+        <v>0.0002381334187756536</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.001320141848182293</v>
+        <v>0.00174435358005911</v>
       </c>
       <c r="C6">
-        <v>0.0004332438262425464</v>
+        <v>0.001434030788648906</v>
       </c>
       <c r="D6">
-        <v>-0.001295848402922735</v>
+        <v>0.0001622515957241694</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,13 +517,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.0007773698560984921</v>
+        <v>0.0008509979412317737</v>
       </c>
       <c r="C7">
-        <v>-9.992136453662592e-06</v>
+        <v>0.001121373826356307</v>
       </c>
       <c r="D7">
-        <v>0.0001668800731025268</v>
+        <v>0.0001561700017374091</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.0006584868869819905</v>
+        <v>0.001376125684840862</v>
       </c>
       <c r="C8">
-        <v>-0.0003322952753938494</v>
+        <v>0.0007898453935949197</v>
       </c>
       <c r="D8">
-        <v>0.0001866231207078432</v>
+        <v>-0.0002203373767041053</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.0005778959725547816</v>
+        <v>0.0009772024388970736</v>
       </c>
       <c r="C9">
-        <v>-0.0005825451204929055</v>
+        <v>0.0007101139431053542</v>
       </c>
       <c r="D9">
-        <v>-0.0005115173927918756</v>
+        <v>-4.742429810917277e-06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.0009462745158641594</v>
+        <v>-0.0009776502703940869</v>
       </c>
       <c r="C10">
-        <v>-0.0005959571914849304</v>
+        <v>0.0003662665418588895</v>
       </c>
       <c r="D10">
-        <v>-0.001131430202676294</v>
+        <v>0.0002167801697095391</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.001863606169684373</v>
+        <v>-5.654603869696962e-05</v>
       </c>
       <c r="C11">
-        <v>-0.0007699545907009571</v>
+        <v>0.0002215266996046757</v>
       </c>
       <c r="D11">
-        <v>-0.000698241650820122</v>
+        <v>0.0003075383195449186</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -587,13 +587,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.0008627095960117459</v>
+        <v>-0.0001301105878978914</v>
       </c>
       <c r="C12">
-        <v>-0.001197521429633558</v>
+        <v>-8.829161900483773e-05</v>
       </c>
       <c r="D12">
-        <v>-0.0002006944181068828</v>
+        <v>0.0002873879133641499</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-7.393187603620399e-05</v>
+        <v>-0.0003898370212363944</v>
       </c>
       <c r="C13">
-        <v>-0.002647055497122375</v>
+        <v>-0.0004047932664717868</v>
       </c>
       <c r="D13">
-        <v>-0.0003036392546297568</v>
+        <v>0.0002447392377307</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.001393990936938178</v>
+        <v>-0.005873494369719895</v>
       </c>
       <c r="C14">
-        <v>-0.004181550862245801</v>
+        <v>-0.005326002659792091</v>
       </c>
       <c r="D14">
-        <v>-0.0003291242719403523</v>
+        <v>0.002603864918268941</v>
       </c>
     </row>
   </sheetData>
